--- a/docs/assets/friseurnamen/friseurnamen.xlsx
+++ b/docs/assets/friseurnamen/friseurnamen.xlsx
@@ -8,14 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/quirin/proj/methling231/assets/friseurnamen/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E28D2990-ECAD-DC48-9C14-2504CCFEAF9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69A9D13A-5BC3-E94F-8145-C43631E60B4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="15500" xr2:uid="{FCB5E75C-ADF4-CD4B-8926-91877FBDC8F6}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="15500" xr2:uid="{FBC136DF-493F-1449-B720-AC53404DBA05}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet4" sheetId="5" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
+  <pivotCaches>
+    <pivotCache cacheId="76" r:id="rId3"/>
+  </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,40 +40,94 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="27">
+  <si>
+    <t>drumhairum.jpg</t>
+  </si>
+  <si>
+    <t>File</t>
+  </si>
+  <si>
+    <t>Text</t>
+  </si>
+  <si>
+    <t>drumhairum</t>
+  </si>
+  <si>
+    <t>Language</t>
+  </si>
+  <si>
+    <t>German</t>
+  </si>
+  <si>
+    <t>English</t>
+  </si>
+  <si>
+    <t>haamore</t>
+  </si>
+  <si>
+    <t>haamore.jpg</t>
+  </si>
+  <si>
+    <t>Italian</t>
+  </si>
+  <si>
+    <t>Haarmonie</t>
+  </si>
   <si>
     <t>haarmonie.jpg</t>
   </si>
   <si>
-    <t>Link</t>
-  </si>
-  <si>
-    <t>Titel</t>
-  </si>
-  <si>
-    <t>Haarmonie</t>
-  </si>
-  <si>
-    <t>Sprache</t>
-  </si>
-  <si>
-    <t>Deutsch</t>
-  </si>
-  <si>
-    <t>drumhairum.jpg</t>
-  </si>
-  <si>
-    <t>drumhairum</t>
-  </si>
-  <si>
-    <t>Englisch</t>
+    <t>Constituent</t>
+  </si>
+  <si>
+    <t>drumherum</t>
+  </si>
+  <si>
+    <t>hair</t>
+  </si>
+  <si>
+    <t>Haar</t>
+  </si>
+  <si>
+    <t>amore</t>
+  </si>
+  <si>
+    <t>Harmonie</t>
+  </si>
+  <si>
+    <t>Row Labels</t>
+  </si>
+  <si>
+    <t>Grand Total</t>
+  </si>
+  <si>
+    <t>kammback.jpg</t>
+  </si>
+  <si>
+    <t>kammback</t>
+  </si>
+  <si>
+    <t>Kamm</t>
+  </si>
+  <si>
+    <t>come back</t>
+  </si>
+  <si>
+    <t>LangDistinct</t>
+  </si>
+  <si>
+    <t>Sum of LangDistinct</t>
+  </si>
+  <si>
+    <t>Haamore</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -85,20 +143,60 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
       <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -107,15 +205,160 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="6">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -128,13 +371,169 @@
 </styleSheet>
 </file>
 
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Quirin Würschinger" refreshedDate="45112.805454861111" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="8" xr:uid="{8ED8F518-2079-F64E-839D-A3176C8087B1}">
+  <cacheSource type="worksheet">
+    <worksheetSource name="constituents"/>
+  </cacheSource>
+  <cacheFields count="5">
+    <cacheField name="File" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Text" numFmtId="0">
+      <sharedItems count="4">
+        <s v="drumhairum"/>
+        <s v="haamore"/>
+        <s v="Haarmonie"/>
+        <s v="kammback"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Constituent" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Language" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="LangDistinct" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="1"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="8">
+  <r>
+    <s v="drumhairum.jpg"/>
+    <x v="0"/>
+    <s v="drumherum"/>
+    <s v="German"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <s v="drumhairum.jpg"/>
+    <x v="0"/>
+    <s v="hair"/>
+    <s v="English"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <s v="haamore.jpg"/>
+    <x v="1"/>
+    <s v="amore"/>
+    <s v="Italian"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <s v="haamore.jpg"/>
+    <x v="1"/>
+    <s v="Haar"/>
+    <s v="German"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <s v="haarmonie.jpg"/>
+    <x v="2"/>
+    <s v="Haar"/>
+    <s v="German"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <s v="haarmonie.jpg"/>
+    <x v="2"/>
+    <s v="Harmonie"/>
+    <s v="German"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <s v="kammback.jpg"/>
+    <x v="3"/>
+    <s v="Kamm"/>
+    <s v="German"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <s v="kammback.jpg"/>
+    <x v="3"/>
+    <s v="come back"/>
+    <s v="English"/>
+    <n v="1"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B5CE6321-4C56-0E4F-817D-D9E99EB3F9D6}" name="PivotTable14" cacheId="76" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:B8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="5">
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="5">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of LangDistinct" fld="4" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{126513B6-0C55-F948-9F5C-D72E60B4C2D1}" name="Table1" displayName="Table1" ref="A1:C2" totalsRowShown="0">
-  <autoFilter ref="A1:C2" xr:uid="{126513B6-0C55-F948-9F5C-D72E60B4C2D1}"/>
-  <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{F502288B-FC1C-894B-8A4E-F652A5CB396B}" name="Titel"/>
-    <tableColumn id="2" xr3:uid="{B8FD54B1-E23A-8640-988B-C3F106F5BE0A}" name="Link" dataCellStyle="Hyperlink"/>
-    <tableColumn id="3" xr3:uid="{3586566D-D4F9-B34E-83DC-6FB515CF2099}" name="Sprache"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4EA37DE2-92DF-4544-9F2C-3BCE6AAD5ACD}" name="constituents" displayName="constituents" ref="A1:E9" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4" tableBorderDxfId="3">
+  <autoFilter ref="A1:E9" xr:uid="{4EA37DE2-92DF-4544-9F2C-3BCE6AAD5ACD}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{5207E9EC-A44B-7248-BAE2-0E97F88A460C}" name="File"/>
+    <tableColumn id="2" xr3:uid="{FCE6A901-95C1-4B48-BEC6-771ADB0D676C}" name="Text" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{C2D08FFE-DA93-604D-BC2B-52F06C96BA79}" name="Constituent" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{4CBBBFAE-8824-534D-87E0-24AE5F5D76F0}" name="Language" dataDxfId="0"/>
+    <tableColumn id="5" xr3:uid="{3031344C-0F85-E548-AF49-930E830279D7}" name="LangDistinct">
+      <calculatedColumnFormula>IF(COUNTIFS($D$2:D2,D2,$B$2:B2,B2)&gt;1,0,1)</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -436,60 +835,264 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{005FD320-7E48-534F-A22A-569D11C1756C}">
-  <dimension ref="A1:C3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7966F288-03AA-9A49-99C9-715928F45A35}">
+  <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="158" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" zoomScale="200" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2">
+        <f>IF(COUNTIFS($D$2:D2,D2,$B$2:B2,B2)&gt;1,0,1)</f>
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C3" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3">
+        <f>IF(COUNTIFS($D$2:D3,D3,$B$2:B3,B3)&gt;1,0,1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4">
+        <f>IF(COUNTIFS($D$2:D4,D4,$B$2:B4,B4)&gt;1,0,1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5">
+        <f>IF(COUNTIFS($D$2:D5,D5,$B$2:B5,B5)&gt;1,0,1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6">
+        <f>IF(COUNTIFS($D$2:D6,D6,$B$2:B6,B6)&gt;1,0,1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7">
+        <f>IF(COUNTIFS($D$2:D7,D7,$B$2:B7,B7)&gt;1,0,1)</f>
         <v>0</v>
       </c>
-      <c r="C2" t="s">
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="1" t="s">
+      <c r="E8">
+        <f>IF(COUNTIFS($D$2:D8,D8,$B$2:B8,B8)&gt;1,0,1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" t="s">
-        <v>8</v>
+      <c r="E9">
+        <f>IF(COUNTIFS($D$2:D9,D9,$B$2:B9,B9)&gt;1,0,1)</f>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{E0862755-94B1-B744-87A7-FF00FF453928}"/>
-    <hyperlink ref="B3" r:id="rId2" xr:uid="{4872D5CE-ED8B-7A48-9EBD-22730B34A7C8}"/>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{86CA9CB7-B42D-8B49-8456-0F476C189148}"/>
+    <hyperlink ref="A3" r:id="rId2" xr:uid="{8DA0FB1A-9D0A-494D-9A82-46A135DB1152}"/>
+    <hyperlink ref="A8" r:id="rId3" xr:uid="{2ECE88D9-5690-3342-A160-F1E3F23F25AA}"/>
+    <hyperlink ref="A9" r:id="rId4" xr:uid="{83E801B9-368C-EB40-8D06-DD48EE6BEDFA}"/>
+    <hyperlink ref="A4" r:id="rId5" xr:uid="{70584E84-BA93-4C44-BCB9-87C4D108F7F7}"/>
+    <hyperlink ref="A6" r:id="rId6" xr:uid="{8DD9263F-0F0B-7346-BF5C-162260F930B8}"/>
+    <hyperlink ref="A5" r:id="rId7" display="drumhairum.jpg" xr:uid="{146AFD21-6BE8-7E47-B464-AD95C593D102}"/>
+    <hyperlink ref="A7" r:id="rId8" xr:uid="{34D5AB59-B198-DF4B-96E9-47A52919169B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <tableParts count="1">
-    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId9"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BED7FE1E-B2BE-E842-BB5B-787B330DCDE3}">
+  <dimension ref="A3:B8"/>
+  <sheetViews>
+    <sheetView zoomScale="170" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/docs/assets/friseurnamen/friseurnamen.xlsx
+++ b/docs/assets/friseurnamen/friseurnamen.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/quirin/proj/methling231/assets/friseurnamen/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69A9D13A-5BC3-E94F-8145-C43631E60B4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA955BA4-46A1-D14B-B984-117313E57717}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="15500" xr2:uid="{FBC136DF-493F-1449-B720-AC53404DBA05}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="15500" activeTab="1" xr2:uid="{FBC136DF-493F-1449-B720-AC53404DBA05}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="76" r:id="rId3"/>
+    <pivotCache cacheId="77" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -468,7 +468,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B5CE6321-4C56-0E4F-817D-D9E99EB3F9D6}" name="PivotTable14" cacheId="76" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B5CE6321-4C56-0E4F-817D-D9E99EB3F9D6}" name="PivotTable14" cacheId="77" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:B8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="5">
     <pivotField showAll="0"/>
@@ -838,7 +838,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7966F288-03AA-9A49-99C9-715928F45A35}">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" workbookViewId="0">
+    <sheetView zoomScale="200" workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
@@ -1034,8 +1034,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BED7FE1E-B2BE-E842-BB5B-787B330DCDE3}">
   <dimension ref="A3:B8"/>
   <sheetViews>
-    <sheetView zoomScale="170" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" zoomScale="170" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
